--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H2">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I2">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J2">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N2">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O2">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P2">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q2">
-        <v>24.145511991552</v>
+        <v>1.274718204711333</v>
       </c>
       <c r="R2">
-        <v>217.309607923968</v>
+        <v>11.472463842402</v>
       </c>
       <c r="S2">
-        <v>0.006493081397999124</v>
+        <v>0.0005668842059110462</v>
       </c>
       <c r="T2">
-        <v>0.006493081397999121</v>
+        <v>0.0005668842059110462</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H3">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I3">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J3">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.061059</v>
       </c>
       <c r="O3">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P3">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q3">
-        <v>199.933812506304</v>
+        <v>18.46165161563134</v>
       </c>
       <c r="R3">
-        <v>1799.404312556736</v>
+        <v>166.154864540682</v>
       </c>
       <c r="S3">
-        <v>0.05376512700455201</v>
+        <v>0.008210142976897034</v>
       </c>
       <c r="T3">
-        <v>0.053765127004552</v>
+        <v>0.008210142976897034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H4">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I4">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J4">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N4">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O4">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P4">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q4">
-        <v>1387.679537836224</v>
+        <v>140.1372020539173</v>
       </c>
       <c r="R4">
-        <v>12489.11584052602</v>
+        <v>1261.234818485256</v>
       </c>
       <c r="S4">
-        <v>0.3731673280177668</v>
+        <v>0.06232088489151272</v>
       </c>
       <c r="T4">
-        <v>0.3731673280177667</v>
+        <v>0.06232088489151272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H5">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I5">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J5">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N5">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O5">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P5">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q5">
-        <v>41.64485004</v>
+        <v>1.055659720422889</v>
       </c>
       <c r="R5">
-        <v>374.80365036</v>
+        <v>9.500937483806</v>
       </c>
       <c r="S5">
-        <v>0.01119890939615592</v>
+        <v>0.0004694659730381159</v>
       </c>
       <c r="T5">
-        <v>0.01119890939615591</v>
+        <v>0.0004694659730381159</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>54.380033</v>
       </c>
       <c r="I6">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J6">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N6">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O6">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P6">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q6">
-        <v>15.36835321058178</v>
+        <v>8.786598845396336</v>
       </c>
       <c r="R6">
-        <v>138.315178895236</v>
+        <v>79.07938960856701</v>
       </c>
       <c r="S6">
-        <v>0.00413277500118541</v>
+        <v>0.003907517826859141</v>
       </c>
       <c r="T6">
-        <v>0.004132775001185409</v>
+        <v>0.003907517826859141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>54.380033</v>
       </c>
       <c r="I7">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J7">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.061059</v>
       </c>
       <c r="O7">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P7">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q7">
         <v>127.2556759372164</v>
@@ -883,10 +883,10 @@
         <v>1145.301083434947</v>
       </c>
       <c r="S7">
-        <v>0.03422091287634912</v>
+        <v>0.05659229823086947</v>
       </c>
       <c r="T7">
-        <v>0.03422091287634911</v>
+        <v>0.05659229823086947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>54.380033</v>
       </c>
       <c r="I8">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J8">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N8">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O8">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P8">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q8">
-        <v>883.242785989612</v>
+        <v>965.9620245580975</v>
       </c>
       <c r="R8">
-        <v>7949.185073906508</v>
+        <v>8693.658221022877</v>
       </c>
       <c r="S8">
-        <v>0.2375169060665441</v>
+        <v>0.4295762100266292</v>
       </c>
       <c r="T8">
-        <v>0.237516906066544</v>
+        <v>0.4295762100266292</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>54.380033</v>
       </c>
       <c r="I9">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J9">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N9">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O9">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P9">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q9">
-        <v>26.50648969631944</v>
+        <v>7.276634511311223</v>
       </c>
       <c r="R9">
-        <v>238.558407266875</v>
+        <v>65.48971060180101</v>
       </c>
       <c r="S9">
-        <v>0.007127982841434235</v>
+        <v>0.003236016526165252</v>
       </c>
       <c r="T9">
-        <v>0.007127982841434232</v>
+        <v>0.003236016526165252</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H10">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I10">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J10">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N10">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O10">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P10">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q10">
-        <v>5.030175106180002</v>
+        <v>3.660052296425667</v>
       </c>
       <c r="R10">
-        <v>45.27157595562001</v>
+        <v>32.940470667831</v>
       </c>
       <c r="S10">
-        <v>0.00135268767222841</v>
+        <v>0.0016276741259234</v>
       </c>
       <c r="T10">
-        <v>0.001352687672228409</v>
+        <v>0.0016276741259234</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H11">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I11">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J11">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.061059</v>
       </c>
       <c r="O11">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P11">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q11">
-        <v>41.65171924723501</v>
+        <v>53.00827284168567</v>
       </c>
       <c r="R11">
-        <v>374.8654732251151</v>
+        <v>477.074455575171</v>
       </c>
       <c r="S11">
-        <v>0.01120075662647069</v>
+        <v>0.02357348670907224</v>
       </c>
       <c r="T11">
-        <v>0.01120075662647069</v>
+        <v>0.02357348670907225</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H12">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I12">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J12">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N12">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O12">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P12">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q12">
-        <v>289.091863905035</v>
+        <v>402.3708818909187</v>
       </c>
       <c r="R12">
-        <v>2601.826775145315</v>
+        <v>3621.337937018268</v>
       </c>
       <c r="S12">
-        <v>0.07774103131428454</v>
+        <v>0.1789397037081734</v>
       </c>
       <c r="T12">
-        <v>0.07774103131428452</v>
+        <v>0.1789397037081734</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H13">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I13">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J13">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N13">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O13">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P13">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q13">
-        <v>8.675769146875</v>
+        <v>3.031077590088111</v>
       </c>
       <c r="R13">
-        <v>78.08192232187501</v>
+        <v>27.279698310793</v>
       </c>
       <c r="S13">
-        <v>0.002333041240981691</v>
+        <v>0.001347960675827154</v>
       </c>
       <c r="T13">
-        <v>0.00233304124098169</v>
+        <v>0.001347960675827155</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H14">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I14">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J14">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8478306666666667</v>
+        <v>0.484733</v>
       </c>
       <c r="N14">
-        <v>2.543492</v>
+        <v>1.454199</v>
       </c>
       <c r="O14">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="P14">
-        <v>0.01460351867535248</v>
+        <v>0.00792098608860474</v>
       </c>
       <c r="Q14">
-        <v>9.761367814744</v>
+        <v>4.090072674827334</v>
       </c>
       <c r="R14">
-        <v>87.85231033269601</v>
+        <v>36.810654073446</v>
       </c>
       <c r="S14">
-        <v>0.00262497460393954</v>
+        <v>0.001818909929911152</v>
       </c>
       <c r="T14">
-        <v>0.002624974603939539</v>
+        <v>0.001818909929911152</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H15">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I15">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J15">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.061059</v>
       </c>
       <c r="O15">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="P15">
-        <v>0.1209225617494376</v>
+        <v>0.1147190689515559</v>
       </c>
       <c r="Q15">
-        <v>80.827753131138</v>
+        <v>59.23622689798734</v>
       </c>
       <c r="R15">
-        <v>727.4497781802421</v>
+        <v>533.126042081886</v>
       </c>
       <c r="S15">
-        <v>0.02173576524206574</v>
+        <v>0.02634314103471715</v>
       </c>
       <c r="T15">
-        <v>0.02173576524206574</v>
+        <v>0.02634314103471715</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H16">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I16">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J16">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>48.72612633333333</v>
+        <v>53.289524</v>
       </c>
       <c r="N16">
-        <v>146.178379</v>
+        <v>159.868572</v>
       </c>
       <c r="O16">
-        <v>0.8392865743864156</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="P16">
-        <v>0.8392865743864155</v>
+        <v>0.8708001689019901</v>
       </c>
       <c r="Q16">
-        <v>561.000751715378</v>
+        <v>449.6455285011654</v>
       </c>
       <c r="R16">
-        <v>5049.006765438403</v>
+        <v>4046.809756510488</v>
       </c>
       <c r="S16">
-        <v>0.1508613089878202</v>
+        <v>0.1999633702756748</v>
       </c>
       <c r="T16">
-        <v>0.1508613089878202</v>
+        <v>0.1999633702756748</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H17">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I17">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J17">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.462291666666667</v>
+        <v>0.4014323333333333</v>
       </c>
       <c r="N17">
-        <v>4.386875</v>
+        <v>1.204297</v>
       </c>
       <c r="O17">
-        <v>0.02518734518879435</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="P17">
-        <v>0.02518734518879434</v>
+        <v>0.006559776057849319</v>
       </c>
       <c r="Q17">
-        <v>16.83586991125</v>
+        <v>3.387199586904222</v>
       </c>
       <c r="R17">
-        <v>151.52282920125</v>
+        <v>30.484796282138</v>
       </c>
       <c r="S17">
-        <v>0.004527411710222508</v>
+        <v>0.001506332882818796</v>
       </c>
       <c r="T17">
-        <v>0.004527411710222507</v>
+        <v>0.001506332882818796</v>
       </c>
     </row>
   </sheetData>
